--- a/mean_std-deviation/std.xlsx
+++ b/mean_std-deviation/std.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Fcnn1D-4" sheetId="9" r:id="rId1"/>
+    <sheet name="FNN1D-4" sheetId="9" r:id="rId1"/>
     <sheet name="Conv1D-1-3" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -91,9 +91,6 @@
     <t>Chair_Pose</t>
   </si>
   <si>
-    <t>Fcnn1D-4</t>
-  </si>
-  <si>
     <t>Conv1D-1-3</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">accuracy </t>
+  </si>
+  <si>
+    <t>FNN1D-4</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +458,7 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <f xml:space="preserve"> AVERAGE(D4:D8)</f>
@@ -760,7 +760,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <f>STDEV(D4:D8)</f>
@@ -941,7 +941,7 @@
         <v>0.92857000000000001</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2">
         <f xml:space="preserve"> AVERAGE(D12:D16)</f>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2">
         <f>STDEV(D12:D16)</f>
@@ -1184,7 +1184,7 @@
         <v>0.96296000000000004</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P20" s="2">
         <f xml:space="preserve"> AVERAGE(P15:P19)</f>
@@ -1226,7 +1226,7 @@
         <v>0.96296000000000004</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P21" s="2">
         <f>STDEV(P15:P19 )</f>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2">
         <f xml:space="preserve"> AVERAGE(D20:D24)</f>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2">
         <f>STDEV(D20:D24)</f>
@@ -1438,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -1450,7 +1450,7 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
@@ -1701,7 +1701,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <f xml:space="preserve"> AVERAGE(D4:D8)</f>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <f>STDEV(D4:D8)</f>
@@ -1933,7 +1933,7 @@
         <v>0.94286000000000003</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
@@ -2020,7 +2020,7 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(D12:D16)</f>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2">
         <f>STDEV(D12:D16)</f>
@@ -2176,7 +2176,7 @@
         <v>0.96296000000000004</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P20" s="2">
         <f>AVERAGE(P15:P19)</f>
@@ -2218,7 +2218,7 @@
         <v>0.96296000000000004</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P21" s="2">
         <f>STDEV(P15:P19)</f>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2">
         <f>AVERAGE(D20:D24)</f>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2">
         <f>STDEV(D20:D24)</f>
